--- a/SyntheticData.xlsx
+++ b/SyntheticData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hackathon-764\Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coepac-my.sharepoint.com/personal/rujutaab21_comp_coeptech_ac_in/Documents/Projects/Hackathon-764-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F7A91-8CF3-4554-AF4F-030CBA7419D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{768F7A91-8CF3-4554-AF4F-030CBA7419D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{764E9153-2B54-4D8A-A664-76FA9E73C712}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="1020" windowWidth="9510" windowHeight="7180" xr2:uid="{4728C98E-AAC6-4D8D-917C-74B91C2B7A91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4728C98E-AAC6-4D8D-917C-74B91C2B7A91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>Start</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>2022-12-02</t>
+  </si>
+  <si>
+    <t>U8612</t>
   </si>
 </sst>
 </file>
@@ -193,10 +196,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -550,7 +559,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="D1:D1048576 E1:E1048576"/>
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,8 +580,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -582,8 +591,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -593,8 +602,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -604,8 +613,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -615,8 +624,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -626,8 +635,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>1</v>
+      <c r="A7" t="s">
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -637,8 +646,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>1</v>
+      <c r="A8" t="s">
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -648,8 +657,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>1</v>
+      <c r="A9" t="s">
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -659,8 +668,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>1</v>
+      <c r="A10" t="s">
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -670,8 +679,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1</v>
+      <c r="A11" t="s">
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -681,8 +690,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1</v>
+      <c r="A12" t="s">
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -692,8 +701,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>1</v>
+      <c r="A13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -703,8 +712,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1</v>
+      <c r="A14" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -714,8 +723,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1</v>
+      <c r="A15" t="s">
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -725,8 +734,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>1</v>
+      <c r="A16" t="s">
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -736,8 +745,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>1</v>
+      <c r="A17" t="s">
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
@@ -747,8 +756,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>1</v>
+      <c r="A18" t="s">
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
@@ -758,8 +767,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>1</v>
+      <c r="A19" t="s">
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -769,8 +778,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>1</v>
+      <c r="A20" t="s">
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
@@ -780,8 +789,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>1</v>
+      <c r="A21" t="s">
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
@@ -791,8 +800,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>1</v>
+      <c r="A22" t="s">
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -802,8 +811,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>1</v>
+      <c r="A23" t="s">
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
@@ -813,8 +822,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>1</v>
+      <c r="A24" t="s">
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
@@ -824,8 +833,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>1</v>
+      <c r="A25" t="s">
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
@@ -835,8 +844,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>1</v>
+      <c r="A26" t="s">
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
@@ -846,6 +855,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SyntheticData.xlsx
+++ b/SyntheticData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://coepac-my.sharepoint.com/personal/rujutaab21_comp_coeptech_ac_in/Documents/Projects/Hackathon-764-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{768F7A91-8CF3-4554-AF4F-030CBA7419D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{764E9153-2B54-4D8A-A664-76FA9E73C712}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{768F7A91-8CF3-4554-AF4F-030CBA7419D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB2A67EB-F230-4D31-91F2-7D54A99F6190}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4728C98E-AAC6-4D8D-917C-74B91C2B7A91}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Start</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>2022-12-02</t>
-  </si>
-  <si>
-    <t>U8612</t>
   </si>
 </sst>
 </file>
@@ -256,6 +253,38 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -556,16 +585,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4994DC-65F8-4B3C-BE36-55D9296FD27E}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -580,8 +612,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>53</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -591,8 +623,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>53</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -602,8 +634,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>53</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -613,8 +645,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>53</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -624,8 +656,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>53</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -635,8 +667,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>53</v>
+      <c r="A7">
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -646,8 +678,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>53</v>
+      <c r="A8">
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -657,8 +689,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>53</v>
+      <c r="A9">
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -668,8 +700,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>53</v>
+      <c r="A10">
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -679,8 +711,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>53</v>
+      <c r="A11">
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -690,8 +722,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>53</v>
+      <c r="A12">
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -701,8 +733,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>53</v>
+      <c r="A13">
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -712,8 +744,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>53</v>
+      <c r="A14">
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -723,8 +755,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>53</v>
+      <c r="A15">
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -734,8 +766,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>53</v>
+      <c r="A16">
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -745,8 +777,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>53</v>
+      <c r="A17">
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
@@ -756,8 +788,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>53</v>
+      <c r="A18">
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
@@ -767,8 +799,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>53</v>
+      <c r="A19">
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -778,8 +810,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>53</v>
+      <c r="A20">
+        <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
@@ -789,8 +821,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>53</v>
+      <c r="A21">
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
@@ -800,8 +832,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>53</v>
+      <c r="A22">
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -811,8 +843,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>53</v>
+      <c r="A23">
+        <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
@@ -822,8 +854,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>53</v>
+      <c r="A24">
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
@@ -833,8 +865,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="A25">
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
@@ -844,8 +876,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>53</v>
+      <c r="A26">
+        <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
@@ -853,9 +885,46 @@
       <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>